--- a/discord (copie).xlsx
+++ b/discord (copie).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -101,6 +101,24 @@
   </si>
   <si>
     <t xml:space="preserve">4833;11550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stdb_308_0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitdb__100_180.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chfdbchf15_1.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitdbx_mitdbx_108_1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qtdbsele0606_1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ann_gun_CentroidA_1.csv</t>
   </si>
 </sst>
 </file>
@@ -141,12 +159,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -190,13 +214,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -208,6 +240,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -216,18 +308,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:F5"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="16:22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -250,23 +344,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>5400</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>2500</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="2" t="n">
         <v>200</v>
       </c>
     </row>
@@ -290,23 +384,23 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>5401</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>1900</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="2" t="n">
         <v>200</v>
       </c>
     </row>
@@ -350,83 +444,83 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>16000</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="2" t="n">
         <v>600</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="2" t="n">
         <v>2500</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>1150</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="2" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>15000</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>2250</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="F9" s="2" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="D10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="2" t="n">
         <v>150</v>
       </c>
     </row>
@@ -450,23 +544,23 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>35040</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="2" t="n">
         <v>800</v>
       </c>
     </row>
@@ -488,6 +582,146 @@
       </c>
       <c r="F13" s="0" t="n">
         <v>366</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>5400</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>5401</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>2250</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>35040</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/discord (copie).xlsx
+++ b/discord (copie).xlsx
@@ -118,7 +118,7 @@
     <t xml:space="preserve">qtdbsele0606_1.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">ann_gun_CentroidA_1.csv</t>
+    <t xml:space="preserve">ann_gun_CentroidA1.csv</t>
   </si>
 </sst>
 </file>
@@ -311,7 +311,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="16:22"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -320,7 +320,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.82"/>
   </cols>
   <sheetData>
